--- a/smoothie-frontend/public/smoothie_sheets.xlsx
+++ b/smoothie-frontend/public/smoothie_sheets.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="73">
   <si>
     <t>ingredient_name</t>
   </si>
@@ -101,7 +101,7 @@
     <t>Mango Chunks Organic, 10 Ounce (Frozen)</t>
   </si>
   <si>
-    <t>mangos</t>
+    <t>mango</t>
   </si>
   <si>
     <t>&lt;a target="_blank" href="https://www.amazon.com/365-Everyday-Value-Organic-Chunks/dp/B074H67LC1/ref=sr_1_14_f3_wg?almBrandId=QW1hem9uIEZyZXNo&amp;amp;crid=2ZDDZGGRLPQXI&amp;amp;fpw=alm&amp;amp;keywords=frozen%252Braspberries&amp;amp;qid=1700593272&amp;amp;s=amazonfresh&amp;amp;sprefix=frozen%252Brasp%252Camazonfresh%252C135&amp;amp;sr=1-14&amp;amp;th=1&amp;_encoding=UTF8&amp;tag=paulgaudin-20&amp;linkCode=ur2&amp;linkId=fdeb3a3c7df9d471c847eabbfeebf22e&amp;camp=1789&amp;creative=9325"&gt;Mango Chunks Organic, 10 Ounce (Frozen)&lt;/a&gt;</t>
@@ -203,55 +203,34 @@
     <t>Berry Banana Spinach</t>
   </si>
   <si>
-    <t xml:space="preserve">2/3 cup strawberries </t>
-  </si>
-  <si>
-    <t>1/3 cup blueberries</t>
-  </si>
-  <si>
-    <t>3/4 cup sliced banana</t>
-  </si>
-  <si>
-    <t>1 cup lightly packed spinach</t>
+    <t>2/3 cup</t>
+  </si>
+  <si>
+    <t>1/3 cup</t>
+  </si>
+  <si>
+    <t>3/4 cup sliced</t>
+  </si>
+  <si>
+    <t>1 cup lightly packed</t>
   </si>
   <si>
     <t>Tropical Green Smoothie</t>
   </si>
   <si>
-    <t>1 cup pineapple</t>
-  </si>
-  <si>
-    <t>mango</t>
-  </si>
-  <si>
-    <t>2/3 cup mango</t>
-  </si>
-  <si>
-    <t>1 cup lightly packed kale</t>
+    <t>1 cup</t>
   </si>
   <si>
     <t>Cherry Peach Bliss</t>
   </si>
   <si>
-    <t>2/3 cup cherries</t>
-  </si>
-  <si>
-    <t>1 cup peaches</t>
-  </si>
-  <si>
     <t>Mango Blackberry Fusion</t>
   </si>
   <si>
-    <t>1 cup mango</t>
-  </si>
-  <si>
-    <t>1/2 cup blackberries</t>
+    <t>1/2 cup</t>
   </si>
   <si>
     <t>Pineapple Berry Kale Delight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/2 cup strawberries </t>
   </si>
 </sst>
 </file>
@@ -301,6 +280,11 @@
     <font>
       <sz val="10.0"/>
       <color rgb="FF0F1111"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF0F1111"/>
       <name val="&quot;Amazon Ember&quot;"/>
     </font>
     <font>
@@ -311,11 +295,6 @@
     <font>
       <color rgb="FF0F1111"/>
       <name val="&quot;Amazon Ember&quot;"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <color rgb="FF0F1111"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -384,10 +363,10 @@
     <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -682,15 +661,14 @@
       </c>
       <c r="F3" s="7">
         <f t="shared" ref="F3:F13" si="1">(G3/C3)*100</f>
-        <v>0.7599318038</v>
+        <v>0.7598583166</v>
       </c>
       <c r="G3" s="8">
-        <f>11.49*0.9</f>
-        <v>10.341</v>
+        <v>10.34</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -709,21 +687,21 @@
         <f t="shared" si="1"/>
         <v>1.056015097</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="9">
         <v>4.79</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="10">
         <v>907.185</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -733,21 +711,21 @@
         <f t="shared" si="1"/>
         <v>0.9909775845</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="11">
         <v>8.99</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="10">
         <v>907.185</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -757,21 +735,21 @@
         <f t="shared" si="1"/>
         <v>0.1642443383</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="11">
         <v>1.49</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="4">
         <v>453.592</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="10" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -781,21 +759,21 @@
         <f t="shared" si="1"/>
         <v>0.9678301205</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="11">
         <v>4.39</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="4">
         <v>453.592</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="10" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -805,21 +783,21 @@
         <f t="shared" si="1"/>
         <v>1.100107586</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="11">
         <v>4.99</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="10">
         <v>283.495</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="10" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -829,21 +807,21 @@
         <f t="shared" si="1"/>
         <v>1.195788286</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="11">
         <v>3.39</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="4">
         <v>453.592</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -853,21 +831,21 @@
         <f t="shared" si="1"/>
         <v>0.593043969</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="11">
         <v>2.69</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C11" s="4">
         <v>453.592</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="10" t="s">
         <v>36</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -877,21 +855,21 @@
         <f t="shared" si="1"/>
         <v>1.100107586</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="11">
         <v>4.99</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="4">
         <v>453.592</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="10" t="s">
         <v>39</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -901,21 +879,21 @@
         <f t="shared" si="1"/>
         <v>0.7694139226</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="11">
         <v>3.49</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C13" s="4">
         <v>453.592</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="10" t="s">
         <v>42</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -925,7 +903,7 @@
         <f t="shared" si="1"/>
         <v>0.593043969</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="10">
         <v>2.69</v>
       </c>
     </row>
@@ -955,249 +933,249 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="10">
         <v>100.0</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="10">
         <v>50.0</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="10">
         <v>100.0</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="10">
         <v>30.0</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="10" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="10">
         <v>150.0</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="10">
+        <v>100.0</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="10">
+        <v>100.0</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="10">
+        <v>30.0</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="9">
+      <c r="B4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="10">
         <v>100.0</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="D4" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="10">
+        <v>150.0</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="10">
+        <v>100.0</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="9">
-        <v>100.0</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="K3" s="9" t="s">
+      <c r="B5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="10">
+        <v>150.0</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="10">
+        <v>75.0</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="10">
+        <v>30.0</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="10">
+        <v>150.0</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="10">
+        <v>75.0</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="10">
+        <v>50.0</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L6" s="10">
         <v>30.0</v>
       </c>
-      <c r="M3" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="9">
-        <v>100.0</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="9">
-        <v>150.0</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="9">
-        <v>100.0</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="9">
-        <v>150.0</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="9">
-        <v>75.0</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="9">
-        <v>30.0</v>
-      </c>
-      <c r="J5" s="9" t="s">
+      <c r="M6" s="10" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="9">
-        <v>150.0</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="9">
-        <v>75.0</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="9">
-        <v>50.0</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6" s="9">
-        <v>30.0</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
